--- a/uploads/excel ga rung.xlsx
+++ b/uploads/excel ga rung.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
